--- a/Excel/MainUIStyle主界面样式.xlsx
+++ b/Excel/MainUIStyle主界面样式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,19 +56,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI/Button/Blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/Button/Standard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/Button/Purple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MainUIStyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Main/UIMainButtonItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Main/UIMainButtonItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,13 +417,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="6" max="6" width="35.875" customWidth="1"/>
   </cols>
@@ -439,7 +435,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -472,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -483,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
